--- a/Заявка_образец.xlsx
+++ b/Заявка_образец.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{690078F1-ED80-428D-8261-9B2092C1953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D471C564-E70D-492F-9693-DF9D80E3A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,10 +28,34 @@
     <t>Кол-во</t>
   </si>
   <si>
-    <t>Цена_Введите название поставщика</t>
-  </si>
-  <si>
-    <t>Производитель_Введите название поставщика</t>
+    <t>Цена_Поставщик1</t>
+  </si>
+  <si>
+    <t>Производитель_Поставщик1</t>
+  </si>
+  <si>
+    <t>Цена_Поставщик2</t>
+  </si>
+  <si>
+    <t>Производитель_Поставщик2</t>
+  </si>
+  <si>
+    <t>Цена_Поставщик3</t>
+  </si>
+  <si>
+    <t>Производитель_Поставщик3</t>
+  </si>
+  <si>
+    <t>Цена_Поставщик4</t>
+  </si>
+  <si>
+    <t>Производитель_Поставщик4</t>
+  </si>
+  <si>
+    <t>Цена_Поставщик5</t>
+  </si>
+  <si>
+    <t>Производитель_Поставщик5</t>
   </si>
 </sst>
 </file>
@@ -402,22 +426,22 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -435,28 +459,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
